--- a/CountryReportCH/MapCH/CHdatamap.xlsx
+++ b/CountryReportCH/MapCH/CHdatamap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentinhenriot/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7023087E-4EB9-1E49-BE1B-C8FB5E37DE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27A90B2-2F34-5746-89DC-44853D409EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24720" windowHeight="11560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="32" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="85">
   <si>
     <t>Total</t>
   </si>
@@ -395,6 +395,21 @@
       <t xml:space="preserve"> According to FSO typology "Area with urban character, 2012", areas as defined on 31.12.2017</t>
     </r>
   </si>
+  <si>
+    <t>Appenzell Ausserrhoden</t>
+  </si>
+  <si>
+    <t>Appenzell Innerrhoden</t>
+  </si>
+  <si>
+    <t>Zürich</t>
+  </si>
+  <si>
+    <t>Sankt Gallen</t>
+  </si>
+  <si>
+    <t>Genève</t>
+  </si>
 </sst>
 </file>
 
@@ -405,7 +420,7 @@
     <numFmt numFmtId="165" formatCode="#,###,##0__;\-#,###,##0__;\-__;@__\ "/>
     <numFmt numFmtId="166" formatCode="#,###,##0__;\-#,###,##0__;0__;@__\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -442,6 +457,12 @@
     <font>
       <b/>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -594,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -690,6 +711,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,12 +1055,12 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B6" sqref="B6"/>
       <selection pane="topRight" activeCell="B6" sqref="B6"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1209,122 +1231,46 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="36">
-        <v>8544527</v>
-      </c>
-      <c r="C6" s="36">
-        <v>1709458</v>
-      </c>
-      <c r="D6" s="36">
-        <v>5257768</v>
-      </c>
-      <c r="E6" s="36">
-        <v>1577301</v>
-      </c>
-      <c r="F6" s="36">
-        <v>4237121</v>
-      </c>
-      <c r="G6" s="36">
-        <v>4307406</v>
-      </c>
-      <c r="H6" s="37">
-        <v>6396252</v>
-      </c>
-      <c r="I6" s="37">
-        <v>2148275</v>
-      </c>
-      <c r="J6" s="36">
-        <v>3797529</v>
-      </c>
-      <c r="K6" s="36">
-        <v>3597800</v>
-      </c>
-      <c r="L6" s="36">
-        <v>405348</v>
-      </c>
-      <c r="M6" s="36">
-        <v>723331</v>
-      </c>
-      <c r="N6" s="36">
-        <v>598</v>
-      </c>
-      <c r="O6" s="36">
-        <v>17392</v>
-      </c>
-      <c r="P6" s="36">
-        <v>2305</v>
-      </c>
-      <c r="Q6" s="36">
-        <v>5380353</v>
-      </c>
-      <c r="R6" s="36">
-        <v>1861193</v>
-      </c>
-      <c r="S6" s="36">
-        <v>1302981</v>
-      </c>
+      <c r="A6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
     </row>
     <row r="7" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="38">
-        <v>1642580</v>
-      </c>
-      <c r="C7" s="38">
-        <v>349186</v>
-      </c>
-      <c r="D7" s="38">
-        <v>1012587</v>
-      </c>
-      <c r="E7" s="38">
-        <v>280807</v>
-      </c>
-      <c r="F7" s="38">
-        <v>804808</v>
-      </c>
-      <c r="G7" s="38">
-        <v>837772</v>
-      </c>
-      <c r="H7" s="39">
-        <v>1099297</v>
-      </c>
-      <c r="I7" s="39">
-        <v>543283</v>
-      </c>
-      <c r="J7" s="38">
-        <v>758587</v>
-      </c>
-      <c r="K7" s="38">
-        <v>660079</v>
-      </c>
-      <c r="L7" s="38">
-        <v>72910</v>
-      </c>
-      <c r="M7" s="38">
-        <v>146485</v>
-      </c>
-      <c r="N7" s="38">
-        <v>171</v>
-      </c>
-      <c r="O7" s="38">
-        <v>3775</v>
-      </c>
-      <c r="P7" s="38">
-        <v>522</v>
-      </c>
-      <c r="Q7" s="38">
-        <v>1137812</v>
-      </c>
-      <c r="R7" s="38">
-        <v>348868</v>
-      </c>
-      <c r="S7" s="38">
-        <v>155900</v>
-      </c>
+      <c r="A7" s="35"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
     </row>
     <row r="8" spans="1:19" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
@@ -1446,7 +1392,7 @@
     </row>
     <row r="10" spans="1:19" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B10" s="40">
         <v>499480</v>
@@ -1504,63 +1450,25 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="38">
-        <v>1877154</v>
-      </c>
-      <c r="C11" s="38">
-        <v>373098</v>
-      </c>
-      <c r="D11" s="38">
-        <v>1136002</v>
-      </c>
-      <c r="E11" s="38">
-        <v>368054</v>
-      </c>
-      <c r="F11" s="38">
-        <v>926783</v>
-      </c>
-      <c r="G11" s="38">
-        <v>950371</v>
-      </c>
-      <c r="H11" s="39">
-        <v>1518454</v>
-      </c>
-      <c r="I11" s="39">
-        <v>358700</v>
-      </c>
-      <c r="J11" s="38">
-        <v>822245</v>
-      </c>
-      <c r="K11" s="38">
-        <v>790588</v>
-      </c>
-      <c r="L11" s="38">
-        <v>97441</v>
-      </c>
-      <c r="M11" s="38">
-        <v>163311</v>
-      </c>
-      <c r="N11" s="38">
-        <v>113</v>
-      </c>
-      <c r="O11" s="38">
-        <v>2955</v>
-      </c>
-      <c r="P11" s="38">
-        <v>460</v>
-      </c>
-      <c r="Q11" s="38">
-        <v>940874</v>
-      </c>
-      <c r="R11" s="38">
-        <v>499938</v>
-      </c>
-      <c r="S11" s="38">
-        <v>436342</v>
-      </c>
+      <c r="A11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
     </row>
     <row r="12" spans="1:19" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
@@ -1858,63 +1766,25 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="38">
-        <v>1161105</v>
-      </c>
-      <c r="C17" s="38">
-        <v>226158</v>
-      </c>
-      <c r="D17" s="38">
-        <v>713317</v>
-      </c>
-      <c r="E17" s="38">
-        <v>221630</v>
-      </c>
-      <c r="F17" s="38">
-        <v>576428</v>
-      </c>
-      <c r="G17" s="38">
-        <v>584677</v>
-      </c>
-      <c r="H17" s="39">
-        <v>854046</v>
-      </c>
-      <c r="I17" s="39">
-        <v>307059</v>
-      </c>
-      <c r="J17" s="38">
-        <v>498190</v>
-      </c>
-      <c r="K17" s="38">
-        <v>505965</v>
-      </c>
-      <c r="L17" s="38">
-        <v>56482</v>
-      </c>
-      <c r="M17" s="38">
-        <v>97709</v>
-      </c>
-      <c r="N17" s="38">
-        <v>68</v>
-      </c>
-      <c r="O17" s="38">
-        <v>2408</v>
-      </c>
-      <c r="P17" s="38">
-        <v>261</v>
-      </c>
-      <c r="Q17" s="38">
-        <v>761407</v>
-      </c>
-      <c r="R17" s="38">
-        <v>291340</v>
-      </c>
-      <c r="S17" s="38">
-        <v>108358</v>
-      </c>
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
     </row>
     <row r="18" spans="1:19" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
@@ -2095,7 +1965,7 @@
     </row>
     <row r="21" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="35" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B21" s="38">
         <v>1520968</v>
@@ -2153,63 +2023,25 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="38">
-        <v>1176321</v>
-      </c>
-      <c r="C22" s="38">
-        <v>233799</v>
-      </c>
-      <c r="D22" s="38">
-        <v>719480</v>
-      </c>
-      <c r="E22" s="38">
-        <v>223042</v>
-      </c>
-      <c r="F22" s="38">
-        <v>590060</v>
-      </c>
-      <c r="G22" s="38">
-        <v>586261</v>
-      </c>
-      <c r="H22" s="39">
-        <v>906244</v>
-      </c>
-      <c r="I22" s="39">
-        <v>270077</v>
-      </c>
-      <c r="J22" s="38">
-        <v>502525</v>
-      </c>
-      <c r="K22" s="38">
-        <v>517369</v>
-      </c>
-      <c r="L22" s="38">
-        <v>58057</v>
-      </c>
-      <c r="M22" s="38">
-        <v>96680</v>
-      </c>
-      <c r="N22" s="38">
-        <v>60</v>
-      </c>
-      <c r="O22" s="38">
-        <v>1451</v>
-      </c>
-      <c r="P22" s="38">
-        <v>146</v>
-      </c>
-      <c r="Q22" s="38">
-        <v>638126</v>
-      </c>
-      <c r="R22" s="38">
-        <v>201579</v>
-      </c>
-      <c r="S22" s="38">
-        <v>336616</v>
-      </c>
+      <c r="A22" s="35"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
     </row>
     <row r="23" spans="1:19" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
@@ -2330,8 +2162,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
-        <v>54</v>
+      <c r="A25" s="47" t="s">
+        <v>80</v>
       </c>
       <c r="B25" s="40">
         <v>55234</v>
@@ -2389,8 +2221,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>55</v>
+      <c r="A26" s="47" t="s">
+        <v>81</v>
       </c>
       <c r="B26" s="40">
         <v>16145</v>
@@ -2449,7 +2281,7 @@
     </row>
     <row r="27" spans="1:19" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B27" s="40">
         <v>507697</v>
@@ -2625,63 +2457,25 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="38">
-        <v>813056</v>
-      </c>
-      <c r="C30" s="38">
-        <v>162941</v>
-      </c>
-      <c r="D30" s="38">
-        <v>504973</v>
-      </c>
-      <c r="E30" s="38">
-        <v>145142</v>
-      </c>
-      <c r="F30" s="38">
-        <v>409769</v>
-      </c>
-      <c r="G30" s="38">
-        <v>403287</v>
-      </c>
-      <c r="H30" s="39">
-        <v>650521</v>
-      </c>
-      <c r="I30" s="39">
-        <v>162535</v>
-      </c>
-      <c r="J30" s="38">
-        <v>362322</v>
-      </c>
-      <c r="K30" s="38">
-        <v>354594</v>
-      </c>
-      <c r="L30" s="38">
-        <v>36382</v>
-      </c>
-      <c r="M30" s="38">
-        <v>58329</v>
-      </c>
-      <c r="N30" s="38">
-        <v>55</v>
-      </c>
-      <c r="O30" s="38">
-        <v>1247</v>
-      </c>
-      <c r="P30" s="38">
-        <v>111</v>
-      </c>
-      <c r="Q30" s="38">
-        <v>477046</v>
-      </c>
-      <c r="R30" s="38">
-        <v>106022</v>
-      </c>
-      <c r="S30" s="38">
-        <v>229988</v>
-      </c>
+      <c r="A30" s="35"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
     </row>
     <row r="31" spans="1:19" s="11" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
